--- a/generated/spreadsheet/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area.xlsx
+++ b/generated/spreadsheet/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area.xlsx
@@ -1073,8 +1073,7 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contact details for the applicant or applicants, including email and phone numbers
-</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -1206,9 +1205,7 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details about the applicants for the planning application,
-including their personal information and contact details
-</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -1416,8 +1413,7 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contact details of the agent acting on behalf of the applicant
-</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -1549,8 +1545,7 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details of the agent acting on behalf of the applicant
-</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -1818,10 +1813,7 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about biodiversity net gain requirements for the development,
-including pre-development biodiversity value, habitat loss details, and
-supporting documentation
-</t>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -2295,8 +2287,7 @@
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Identifies the national requirement types that apply to this application type
-</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -2330,8 +2321,7 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about community consultation activities carried out in relation to the planning application
-</t>
+          <t>What community consultation activities have taken place as part of the application</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
@@ -2391,9 +2381,7 @@
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about any conflicts of interest between the applicant/agent and the planning authority,
-including relationships with staff or elected members
-</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -2479,8 +2467,7 @@
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Declaration by the applicant or agent confirming the accuracy of the information provided
-</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
@@ -2566,8 +2553,7 @@
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Explanation of why demolition is necessary for the proposed development
-</t>
+          <t>Why demolition is necessary at the development site</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -2601,8 +2587,7 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about ownership of the site and/or property for development, including agricultural tenants and notification requirements.
-</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -3052,8 +3037,7 @@
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about any pre-application advice sought from the planning authority
-</t>
+          <t>Details of pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
@@ -3191,8 +3175,7 @@
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about what development, works or change of use is being proposed
-</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
@@ -3330,8 +3313,7 @@
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about related applications, previous proposals or demolitions for the site, including whether such proposals exist and details of any related applications
-</t>
+          <t>Details of any other development proposals made for the site</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
@@ -3455,9 +3437,7 @@
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about the location and extent of the site where development 
-or works are proposed
-</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
@@ -3735,8 +3715,7 @@
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details needed to support a site visit by the planning authority
-</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">

--- a/generated/spreadsheet/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area.xlsx
+++ b/generated/spreadsheet/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area.xlsx
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice received from the planning authority</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">

--- a/generated/spreadsheet/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area.xlsx
+++ b/generated/spreadsheet/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area.xlsx
@@ -697,7 +697,7 @@
       <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>The name or title of the document</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">

--- a/generated/spreadsheet/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area.xlsx
+++ b/generated/spreadsheet/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,9 +440,10 @@
     <col width="48" customWidth="1" min="3" max="3"/>
     <col width="36" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
-    <col width="72" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="72" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -473,15 +474,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>field4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>datatype</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>requirement</t>
         </is>
@@ -500,22 +506,27 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -526,22 +537,27 @@
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
           <t>Application types[]</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>A list of planning application types that define the nature of the planning application</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -552,22 +568,27 @@
       <c r="B4" s="2" t="n"/>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>Application sub type</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>Further classification of the application type for specific variations within the main application type</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -578,22 +599,27 @@
       <c r="B5" s="2" t="n"/>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>Planning authority</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -604,22 +630,27 @@
       <c r="B6" s="2" t="n"/>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>Submission date</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>Date the application is submitted in YYYY-MM-DD format</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -630,22 +661,27 @@
       <c r="B7" s="2" t="n"/>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>Modules[]</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>List of required modules for this application that can be used to validate the application</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -656,26 +692,31 @@
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>A reference for the document</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -686,26 +727,31 @@
       <c r="B9" s="2" t="n"/>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>The name or title of the document</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -716,26 +762,31 @@
       <c r="B10" s="2" t="n"/>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>Brief description of what the document contains</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -746,26 +797,31 @@
       <c r="B11" s="2" t="n"/>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>Document types[]</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>List of codelist references that the document covers</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -776,30 +832,35 @@
       <c r="B12" s="2" t="n"/>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>A URL pointing to the stored file</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -810,30 +871,35 @@
       <c r="B13" s="2" t="n"/>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>Base64</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -844,30 +910,35 @@
       <c r="B14" s="2" t="n"/>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>Filename</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>Name of the file being uploaded</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -878,30 +949,35 @@
       <c r="B15" s="2" t="n"/>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>MIME type</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -912,30 +988,35 @@
       <c r="B16" s="2" t="n"/>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>Checksum</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -946,30 +1027,35 @@
       <c r="B17" s="2" t="n"/>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>File size</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -980,26 +1066,31 @@
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>The total amount due for the application fee</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1010,26 +1101,31 @@
       <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>Amount paid</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>The amount paid towards the application fee</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1040,26 +1136,31 @@
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>Transactions[]</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1083,17 +1184,18 @@
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1113,17 +1215,18 @@
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1147,17 +1250,18 @@
           <t>Phone number</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>A phone number</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1181,17 +1285,18 @@
           <t>Contact priority</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>The priority of a number</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="H24" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
+      <c r="I24" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1219,17 +1324,18 @@
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1253,17 +1359,18 @@
           <t>Title</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>The title of the individual</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1287,17 +1394,18 @@
           <t>First Name</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr">
         <is>
           <t>The first name of the individual</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1321,17 +1429,18 @@
           <t>Last Name</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr">
         <is>
           <t>The last name of the individual</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1355,17 +1464,18 @@
           <t>Address Text</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr">
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr">
         <is>
           <t>Flexible field for capturing addresses</t>
         </is>
       </c>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1389,17 +1499,18 @@
           <t>Postcode</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr">
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr">
         <is>
           <t>The postal code</t>
         </is>
       </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1423,17 +1534,18 @@
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr">
         <is>
           <t>A reference to an agent object</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1453,17 +1565,18 @@
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr">
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr">
         <is>
           <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1487,17 +1600,18 @@
           <t>Phone number</t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr">
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr">
         <is>
           <t>A phone number</t>
         </is>
       </c>
-      <c r="G33" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1521,17 +1635,18 @@
           <t>Contact priority</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr">
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr">
         <is>
           <t>The priority of a number</t>
         </is>
       </c>
-      <c r="G34" s="2" t="inlineStr">
+      <c r="H34" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H34" s="2" t="inlineStr">
+      <c r="I34" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1559,17 +1674,18 @@
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1593,17 +1709,18 @@
           <t>Title</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr">
         <is>
           <t>The title of the individual</t>
         </is>
       </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1627,17 +1744,18 @@
           <t>First Name</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr">
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr">
         <is>
           <t>The first name of the individual</t>
         </is>
       </c>
-      <c r="G37" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1661,17 +1779,18 @@
           <t>Last Name</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr">
         <is>
           <t>The last name of the individual</t>
         </is>
       </c>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1695,17 +1814,18 @@
           <t>Address Text</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr">
         <is>
           <t>Flexible field for capturing addresses</t>
         </is>
       </c>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1729,17 +1849,18 @@
           <t>Postcode</t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr">
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr">
         <is>
           <t>The postal code</t>
         </is>
       </c>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1759,17 +1880,18 @@
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr">
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr">
         <is>
           <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1789,17 +1911,18 @@
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr"/>
-      <c r="F42" s="2" t="inlineStr">
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr">
         <is>
           <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
-      <c r="G42" s="2" t="inlineStr">
+      <c r="H42" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H42" s="2" t="inlineStr">
+      <c r="I42" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1823,17 +1946,18 @@
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr">
+      <c r="F43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="inlineStr">
         <is>
           <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
         </is>
       </c>
-      <c r="G43" s="2" t="inlineStr">
+      <c r="H43" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H43" s="2" t="inlineStr">
+      <c r="I43" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1853,17 +1977,18 @@
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
-      <c r="F44" s="2" t="inlineStr">
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr">
         <is>
           <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
         </is>
       </c>
-      <c r="G44" s="2" t="inlineStr">
+      <c r="H44" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H44" s="2" t="inlineStr">
+      <c r="I44" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1883,17 +2008,18 @@
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr">
+      <c r="F45" s="2" t="inlineStr"/>
+      <c r="G45" s="2" t="inlineStr">
         <is>
           <t>The reason the exemption applies to this proposal</t>
         </is>
       </c>
-      <c r="G45" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1913,17 +2039,18 @@
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr">
         <is>
           <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
         </is>
       </c>
-      <c r="G46" s="2" t="inlineStr">
+      <c r="H46" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H46" s="2" t="inlineStr">
+      <c r="I46" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1943,17 +2070,18 @@
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr"/>
-      <c r="F47" s="2" t="inlineStr">
+      <c r="F47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="inlineStr">
         <is>
           <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
         </is>
       </c>
-      <c r="G47" s="2" t="inlineStr">
+      <c r="H47" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H47" s="2" t="inlineStr">
+      <c r="I47" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1973,17 +2101,18 @@
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr">
         <is>
           <t>Reason for using a pre-development date that is earlier than the application submission</t>
         </is>
       </c>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2003,17 +2132,18 @@
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr"/>
-      <c r="F49" s="2" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr">
         <is>
           <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
         </is>
       </c>
-      <c r="G49" s="2" t="inlineStr">
+      <c r="H49" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H49" s="2" t="inlineStr">
+      <c r="I49" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2037,17 +2167,18 @@
           <t>Loss date</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
+      <c r="F50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr">
         <is>
           <t>Date the activity causing habitat loss or degradation occurred</t>
         </is>
       </c>
-      <c r="G50" s="2" t="inlineStr">
+      <c r="H50" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H50" s="2" t="inlineStr">
+      <c r="I50" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2071,17 +2202,18 @@
           <t>Pre loss biodiversity value</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr">
         <is>
           <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
         </is>
       </c>
-      <c r="G51" s="2" t="inlineStr">
+      <c r="H51" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H51" s="2" t="inlineStr">
+      <c r="I51" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2105,17 +2237,18 @@
           <t>Supporting evidence</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr"/>
+      <c r="G52" s="2" t="inlineStr">
         <is>
           <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
         </is>
       </c>
-      <c r="G52" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2135,17 +2268,18 @@
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr">
         <is>
           <t>Publication date of the biodiversity metric tool used for calculations</t>
         </is>
       </c>
-      <c r="G53" s="2" t="inlineStr">
+      <c r="H53" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H53" s="2" t="inlineStr">
+      <c r="I53" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2165,17 +2299,18 @@
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
-      <c r="F54" s="2" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr">
         <is>
           <t>Indicates whether the site contains any irreplaceable habitats</t>
         </is>
       </c>
-      <c r="G54" s="2" t="inlineStr">
+      <c r="H54" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H54" s="2" t="inlineStr">
+      <c r="I54" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2195,17 +2330,18 @@
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
-      <c r="F55" s="2" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr">
         <is>
           <t>Description and references for any irreplaceable habitats identified on the site</t>
         </is>
       </c>
-      <c r="G55" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2229,17 +2365,18 @@
           <t>Reference</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G56" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2263,17 +2400,18 @@
           <t>Name</t>
         </is>
       </c>
-      <c r="F57" s="2" t="inlineStr">
+      <c r="F57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr">
         <is>
           <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
-      <c r="G57" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2297,17 +2435,18 @@
       </c>
       <c r="D58" s="2" t="inlineStr"/>
       <c r="E58" s="2" t="inlineStr"/>
-      <c r="F58" s="2" t="inlineStr">
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr">
         <is>
           <t>List of the document types required for the given application type</t>
         </is>
       </c>
-      <c r="G58" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2331,17 +2470,18 @@
       </c>
       <c r="D59" s="2" t="inlineStr"/>
       <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr">
+      <c r="F59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr">
         <is>
           <t>Whether community consultation has been carried out</t>
         </is>
       </c>
-      <c r="G59" s="2" t="inlineStr">
+      <c r="H59" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H59" s="2" t="inlineStr">
+      <c r="I59" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2357,17 +2497,18 @@
       </c>
       <c r="D60" s="2" t="inlineStr"/>
       <c r="E60" s="2" t="inlineStr"/>
-      <c r="F60" s="2" t="inlineStr">
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr">
         <is>
           <t>Provide details of the community consultation</t>
         </is>
       </c>
-      <c r="G60" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2391,17 +2532,18 @@
       </c>
       <c r="D61" s="2" t="inlineStr"/>
       <c r="E61" s="2" t="inlineStr"/>
-      <c r="F61" s="2" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr">
         <is>
           <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
-      <c r="G61" s="2" t="inlineStr">
+      <c r="H61" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H61" s="2" t="inlineStr">
+      <c r="I61" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2417,17 +2559,18 @@
       </c>
       <c r="D62" s="2" t="inlineStr"/>
       <c r="E62" s="2" t="inlineStr"/>
-      <c r="F62" s="2" t="inlineStr">
+      <c r="F62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr">
         <is>
           <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
-      <c r="G62" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2443,17 +2586,18 @@
       </c>
       <c r="D63" s="2" t="inlineStr"/>
       <c r="E63" s="2" t="inlineStr"/>
-      <c r="F63" s="2" t="inlineStr">
+      <c r="F63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr">
         <is>
           <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
-      <c r="G63" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2477,17 +2621,18 @@
       </c>
       <c r="D64" s="2" t="inlineStr"/>
       <c r="E64" s="2" t="inlineStr"/>
-      <c r="F64" s="2" t="inlineStr">
+      <c r="F64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr">
         <is>
           <t>A name of a person</t>
         </is>
       </c>
-      <c r="G64" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2503,17 +2648,18 @@
       </c>
       <c r="D65" s="2" t="inlineStr"/>
       <c r="E65" s="2" t="inlineStr"/>
-      <c r="F65" s="2" t="inlineStr">
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr">
         <is>
           <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
-      <c r="G65" s="2" t="inlineStr">
+      <c r="H65" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H65" s="2" t="inlineStr">
+      <c r="I65" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2529,17 +2675,18 @@
       </c>
       <c r="D66" s="2" t="inlineStr"/>
       <c r="E66" s="2" t="inlineStr"/>
-      <c r="F66" s="2" t="inlineStr">
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr">
         <is>
           <t>The date the declaration was made</t>
         </is>
       </c>
-      <c r="G66" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2563,17 +2710,18 @@
       </c>
       <c r="D67" s="2" t="inlineStr"/>
       <c r="E67" s="2" t="inlineStr"/>
-      <c r="F67" s="2" t="inlineStr">
+      <c r="F67" s="2" t="inlineStr"/>
+      <c r="G67" s="2" t="inlineStr">
         <is>
           <t>Why is it necessary to demolish all or part of the building(s) and structure(s)?</t>
         </is>
       </c>
-      <c r="G67" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2597,17 +2745,18 @@
       </c>
       <c r="D68" s="2" t="inlineStr"/>
       <c r="E68" s="2" t="inlineStr"/>
-      <c r="F68" s="2" t="inlineStr">
+      <c r="F68" s="2" t="inlineStr"/>
+      <c r="G68" s="2" t="inlineStr">
         <is>
           <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
-      <c r="G68" s="2" t="inlineStr">
+      <c r="H68" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H68" s="2" t="inlineStr">
+      <c r="I68" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2623,17 +2772,18 @@
       </c>
       <c r="D69" s="2" t="inlineStr"/>
       <c r="E69" s="2" t="inlineStr"/>
-      <c r="F69" s="2" t="inlineStr">
+      <c r="F69" s="2" t="inlineStr"/>
+      <c r="G69" s="2" t="inlineStr">
         <is>
           <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
-      <c r="G69" s="2" t="inlineStr">
+      <c r="H69" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H69" s="2" t="inlineStr">
+      <c r="I69" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2657,17 +2807,18 @@
           <t>Title</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr">
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr">
         <is>
           <t>The title of the individual</t>
         </is>
       </c>
-      <c r="G70" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2691,17 +2842,18 @@
           <t>First Name</t>
         </is>
       </c>
-      <c r="F71" s="2" t="inlineStr">
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr">
         <is>
           <t>The first name of the individual</t>
         </is>
       </c>
-      <c r="G71" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2725,17 +2877,18 @@
           <t>Last Name</t>
         </is>
       </c>
-      <c r="F72" s="2" t="inlineStr">
+      <c r="F72" s="2" t="inlineStr"/>
+      <c r="G72" s="2" t="inlineStr">
         <is>
           <t>The last name of the individual</t>
         </is>
       </c>
-      <c r="G72" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I72" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2759,17 +2912,18 @@
           <t>Address Text</t>
         </is>
       </c>
-      <c r="F73" s="2" t="inlineStr">
+      <c r="F73" s="2" t="inlineStr"/>
+      <c r="G73" s="2" t="inlineStr">
         <is>
           <t>Flexible field for capturing addresses</t>
         </is>
       </c>
-      <c r="G73" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I73" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2793,17 +2947,18 @@
           <t>Postcode</t>
         </is>
       </c>
-      <c r="F74" s="2" t="inlineStr">
+      <c r="F74" s="2" t="inlineStr"/>
+      <c r="G74" s="2" t="inlineStr">
         <is>
           <t>The postal code</t>
         </is>
       </c>
-      <c r="G74" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I74" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2823,17 +2978,18 @@
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr"/>
-      <c r="F75" s="2" t="inlineStr">
+      <c r="F75" s="2" t="inlineStr"/>
+      <c r="G75" s="2" t="inlineStr">
         <is>
           <t>Date when notice was served</t>
         </is>
       </c>
-      <c r="G75" s="2" t="inlineStr">
+      <c r="H75" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H75" s="2" t="inlineStr">
+      <c r="I75" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2849,17 +3005,18 @@
       </c>
       <c r="D76" s="2" t="inlineStr"/>
       <c r="E76" s="2" t="inlineStr"/>
-      <c r="F76" s="2" t="inlineStr">
+      <c r="F76" s="2" t="inlineStr"/>
+      <c r="G76" s="2" t="inlineStr">
         <is>
           <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
-      <c r="G76" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2879,17 +3036,18 @@
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr"/>
-      <c r="F77" s="2" t="inlineStr">
+      <c r="F77" s="2" t="inlineStr"/>
+      <c r="G77" s="2" t="inlineStr">
         <is>
           <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
-      <c r="G77" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2909,17 +3067,18 @@
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr"/>
-      <c r="F78" s="2" t="inlineStr">
+      <c r="F78" s="2" t="inlineStr"/>
+      <c r="G78" s="2" t="inlineStr">
         <is>
           <t>Date when the notice was published</t>
         </is>
       </c>
-      <c r="G78" s="2" t="inlineStr">
+      <c r="H78" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H78" s="2" t="inlineStr">
+      <c r="I78" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2935,17 +3094,18 @@
       </c>
       <c r="D79" s="2" t="inlineStr"/>
       <c r="E79" s="2" t="inlineStr"/>
-      <c r="F79" s="2" t="inlineStr">
+      <c r="F79" s="2" t="inlineStr"/>
+      <c r="G79" s="2" t="inlineStr">
         <is>
           <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
-      <c r="G79" s="2" t="inlineStr">
+      <c r="H79" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H79" s="2" t="inlineStr">
+      <c r="I79" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2961,17 +3121,18 @@
       </c>
       <c r="D80" s="2" t="inlineStr"/>
       <c r="E80" s="2" t="inlineStr"/>
-      <c r="F80" s="2" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr"/>
+      <c r="G80" s="2" t="inlineStr">
         <is>
           <t>Digital signature of the applicant</t>
         </is>
       </c>
-      <c r="G80" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2987,17 +3148,18 @@
       </c>
       <c r="D81" s="2" t="inlineStr"/>
       <c r="E81" s="2" t="inlineStr"/>
-      <c r="F81" s="2" t="inlineStr">
+      <c r="F81" s="2" t="inlineStr"/>
+      <c r="G81" s="2" t="inlineStr">
         <is>
           <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
-      <c r="G81" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3013,17 +3175,18 @@
       </c>
       <c r="D82" s="2" t="inlineStr"/>
       <c r="E82" s="2" t="inlineStr"/>
-      <c r="F82" s="2" t="inlineStr">
+      <c r="F82" s="2" t="inlineStr"/>
+      <c r="G82" s="2" t="inlineStr">
         <is>
           <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
-      <c r="G82" s="2" t="inlineStr">
+      <c r="H82" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H82" s="2" t="inlineStr">
+      <c r="I82" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3047,17 +3210,18 @@
       </c>
       <c r="D83" s="2" t="inlineStr"/>
       <c r="E83" s="2" t="inlineStr"/>
-      <c r="F83" s="2" t="inlineStr">
+      <c r="F83" s="2" t="inlineStr"/>
+      <c r="G83" s="2" t="inlineStr">
         <is>
           <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
-      <c r="G83" s="2" t="inlineStr">
+      <c r="H83" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H83" s="2" t="inlineStr">
+      <c r="I83" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3073,17 +3237,18 @@
       </c>
       <c r="D84" s="2" t="inlineStr"/>
       <c r="E84" s="2" t="inlineStr"/>
-      <c r="F84" s="2" t="inlineStr">
+      <c r="F84" s="2" t="inlineStr"/>
+      <c r="G84" s="2" t="inlineStr">
         <is>
           <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
-      <c r="G84" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I84" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3099,17 +3264,18 @@
       </c>
       <c r="D85" s="2" t="inlineStr"/>
       <c r="E85" s="2" t="inlineStr"/>
-      <c r="F85" s="2" t="inlineStr">
+      <c r="F85" s="2" t="inlineStr"/>
+      <c r="G85" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G85" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3125,17 +3291,18 @@
       </c>
       <c r="D86" s="2" t="inlineStr"/>
       <c r="E86" s="2" t="inlineStr"/>
-      <c r="F86" s="2" t="inlineStr">
+      <c r="F86" s="2" t="inlineStr"/>
+      <c r="G86" s="2" t="inlineStr">
         <is>
           <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
-      <c r="G86" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3151,17 +3318,18 @@
       </c>
       <c r="D87" s="2" t="inlineStr"/>
       <c r="E87" s="2" t="inlineStr"/>
-      <c r="F87" s="2" t="inlineStr">
+      <c r="F87" s="2" t="inlineStr"/>
+      <c r="G87" s="2" t="inlineStr">
         <is>
           <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
-      <c r="G87" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H87" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I87" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3185,17 +3353,18 @@
       </c>
       <c r="D88" s="2" t="inlineStr"/>
       <c r="E88" s="2" t="inlineStr"/>
-      <c r="F88" s="2" t="inlineStr">
+      <c r="F88" s="2" t="inlineStr"/>
+      <c r="G88" s="2" t="inlineStr">
         <is>
           <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
-      <c r="G88" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3211,17 +3380,18 @@
       </c>
       <c r="D89" s="2" t="inlineStr"/>
       <c r="E89" s="2" t="inlineStr"/>
-      <c r="F89" s="2" t="inlineStr">
+      <c r="F89" s="2" t="inlineStr"/>
+      <c r="G89" s="2" t="inlineStr">
         <is>
           <t>Has any work on the proposal already been started</t>
         </is>
       </c>
-      <c r="G89" s="2" t="inlineStr">
+      <c r="H89" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H89" s="2" t="inlineStr">
+      <c r="I89" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3237,17 +3407,18 @@
       </c>
       <c r="D90" s="2" t="inlineStr"/>
       <c r="E90" s="2" t="inlineStr"/>
-      <c r="F90" s="2" t="inlineStr">
+      <c r="F90" s="2" t="inlineStr"/>
+      <c r="G90" s="2" t="inlineStr">
         <is>
           <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
-      <c r="G90" s="2" t="inlineStr">
+      <c r="H90" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H90" s="2" t="inlineStr">
+      <c r="I90" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3263,17 +3434,18 @@
       </c>
       <c r="D91" s="2" t="inlineStr"/>
       <c r="E91" s="2" t="inlineStr"/>
-      <c r="F91" s="2" t="inlineStr">
+      <c r="F91" s="2" t="inlineStr"/>
+      <c r="G91" s="2" t="inlineStr">
         <is>
           <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
-      <c r="G91" s="2" t="inlineStr">
+      <c r="H91" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H91" s="2" t="inlineStr">
+      <c r="I91" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3289,17 +3461,18 @@
       </c>
       <c r="D92" s="2" t="inlineStr"/>
       <c r="E92" s="2" t="inlineStr"/>
-      <c r="F92" s="2" t="inlineStr">
+      <c r="F92" s="2" t="inlineStr"/>
+      <c r="G92" s="2" t="inlineStr">
         <is>
           <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
-      <c r="G92" s="2" t="inlineStr">
+      <c r="H92" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H92" s="2" t="inlineStr">
+      <c r="I92" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3323,17 +3496,18 @@
       </c>
       <c r="D93" s="2" t="inlineStr"/>
       <c r="E93" s="2" t="inlineStr"/>
-      <c r="F93" s="2" t="inlineStr">
+      <c r="F93" s="2" t="inlineStr"/>
+      <c r="G93" s="2" t="inlineStr">
         <is>
           <t>Are there any related applications, previous proposals or demolitions for the site</t>
         </is>
       </c>
-      <c r="G93" s="2" t="inlineStr">
+      <c r="H93" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H93" s="2" t="inlineStr">
+      <c r="I93" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3353,17 +3527,18 @@
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr"/>
-      <c r="F94" s="2" t="inlineStr">
+      <c r="F94" s="2" t="inlineStr"/>
+      <c r="G94" s="2" t="inlineStr">
         <is>
           <t>The reference for the related application</t>
         </is>
       </c>
-      <c r="G94" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3383,17 +3558,18 @@
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr"/>
-      <c r="F95" s="2" t="inlineStr">
+      <c r="F95" s="2" t="inlineStr"/>
+      <c r="G95" s="2" t="inlineStr">
         <is>
           <t>A description of the related application</t>
         </is>
       </c>
-      <c r="G95" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3413,17 +3589,18 @@
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr"/>
-      <c r="F96" s="2" t="inlineStr">
+      <c r="F96" s="2" t="inlineStr"/>
+      <c r="G96" s="2" t="inlineStr">
         <is>
           <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
-      <c r="G96" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3451,17 +3628,18 @@
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr"/>
-      <c r="F97" s="2" t="inlineStr">
+      <c r="F97" s="2" t="inlineStr"/>
+      <c r="G97" s="2" t="inlineStr">
         <is>
           <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
-      <c r="G97" s="2" t="inlineStr">
+      <c r="H97" s="2" t="inlineStr">
         <is>
           <t>wkt</t>
         </is>
       </c>
-      <c r="H97" s="2" t="inlineStr">
+      <c r="I97" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3481,17 +3659,18 @@
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr"/>
-      <c r="F98" s="2" t="inlineStr">
+      <c r="F98" s="2" t="inlineStr"/>
+      <c r="G98" s="2" t="inlineStr">
         <is>
           <t>Flexible field for capturing addresses</t>
         </is>
       </c>
-      <c r="G98" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H98" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I98" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3511,17 +3690,18 @@
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr"/>
-      <c r="F99" s="2" t="inlineStr">
+      <c r="F99" s="2" t="inlineStr"/>
+      <c r="G99" s="2" t="inlineStr">
         <is>
           <t>The postal code</t>
         </is>
       </c>
-      <c r="G99" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3541,17 +3721,18 @@
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr"/>
-      <c r="F100" s="2" t="inlineStr">
+      <c r="F100" s="2" t="inlineStr"/>
+      <c r="G100" s="2" t="inlineStr">
         <is>
           <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
-      <c r="G100" s="2" t="inlineStr">
+      <c r="H100" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H100" s="2" t="inlineStr">
+      <c r="I100" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3571,17 +3752,18 @@
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr"/>
-      <c r="F101" s="2" t="inlineStr">
+      <c r="F101" s="2" t="inlineStr"/>
+      <c r="G101" s="2" t="inlineStr">
         <is>
           <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
-      <c r="G101" s="2" t="inlineStr">
+      <c r="H101" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H101" s="2" t="inlineStr">
+      <c r="I101" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3601,17 +3783,18 @@
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
-      <c r="F102" s="2" t="inlineStr">
+      <c r="F102" s="2" t="inlineStr"/>
+      <c r="G102" s="2" t="inlineStr">
         <is>
           <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
-      <c r="G102" s="2" t="inlineStr">
+      <c r="H102" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H102" s="2" t="inlineStr">
+      <c r="I102" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3631,17 +3814,18 @@
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
-      <c r="F103" s="2" t="inlineStr">
+      <c r="F103" s="2" t="inlineStr"/>
+      <c r="G103" s="2" t="inlineStr">
         <is>
           <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
-      <c r="G103" s="2" t="inlineStr">
+      <c r="H103" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H103" s="2" t="inlineStr">
+      <c r="I103" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3661,17 +3845,18 @@
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
-      <c r="F104" s="2" t="inlineStr">
+      <c r="F104" s="2" t="inlineStr"/>
+      <c r="G104" s="2" t="inlineStr">
         <is>
           <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
-      <c r="G104" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I104" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3691,17 +3876,18 @@
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr"/>
-      <c r="F105" s="2" t="inlineStr">
+      <c r="F105" s="2" t="inlineStr"/>
+      <c r="G105" s="2" t="inlineStr">
         <is>
           <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
-      <c r="G105" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3725,17 +3911,18 @@
       </c>
       <c r="D106" s="2" t="inlineStr"/>
       <c r="E106" s="2" t="inlineStr"/>
-      <c r="F106" s="2" t="inlineStr">
+      <c r="F106" s="2" t="inlineStr"/>
+      <c r="G106" s="2" t="inlineStr">
         <is>
           <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
-      <c r="G106" s="2" t="inlineStr">
+      <c r="H106" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H106" s="2" t="inlineStr">
+      <c r="I106" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3751,17 +3938,18 @@
       </c>
       <c r="D107" s="2" t="inlineStr"/>
       <c r="E107" s="2" t="inlineStr"/>
-      <c r="F107" s="2" t="inlineStr">
+      <c r="F107" s="2" t="inlineStr"/>
+      <c r="G107" s="2" t="inlineStr">
         <is>
           <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
-      <c r="G107" s="2" t="inlineStr">
+      <c r="H107" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H107" s="2" t="inlineStr">
+      <c r="I107" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3777,17 +3965,18 @@
       </c>
       <c r="D108" s="2" t="inlineStr"/>
       <c r="E108" s="2" t="inlineStr"/>
-      <c r="F108" s="2" t="inlineStr">
+      <c r="F108" s="2" t="inlineStr"/>
+      <c r="G108" s="2" t="inlineStr">
         <is>
           <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
-      <c r="G108" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H108" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I108" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3807,17 +3996,18 @@
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
-      <c r="F109" s="2" t="inlineStr">
+      <c r="F109" s="2" t="inlineStr"/>
+      <c r="G109" s="2" t="inlineStr">
         <is>
           <t>The complete name of a person</t>
         </is>
       </c>
-      <c r="G109" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H109" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I109" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3837,17 +4027,18 @@
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
-      <c r="F110" s="2" t="inlineStr">
+      <c r="F110" s="2" t="inlineStr"/>
+      <c r="G110" s="2" t="inlineStr">
         <is>
           <t>A phone number</t>
         </is>
       </c>
-      <c r="G110" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H110" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I110" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3867,17 +4058,18 @@
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr"/>
-      <c r="F111" s="2" t="inlineStr">
+      <c r="F111" s="2" t="inlineStr"/>
+      <c r="G111" s="2" t="inlineStr">
         <is>
           <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
-      <c r="G111" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H111" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I111" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>

--- a/generated/spreadsheet/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area.xlsx
+++ b/generated/spreadsheet/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">

--- a/generated/spreadsheet/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area.xlsx
+++ b/generated/spreadsheet/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area.xlsx
@@ -611,7 +611,7 @@
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">

--- a/generated/spreadsheet/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area.xlsx
+++ b/generated/spreadsheet/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,12 +847,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -925,12 +925,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1003,17 +1003,17 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1032,22 +1032,18 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1057,7 +1053,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1076,13 +1072,13 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1111,48 +1107,48 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1162,32 +1158,28 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1211,14 +1203,18 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1228,7 +1224,7 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1247,18 +1243,18 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1268,51 +1264,47 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1320,14 +1312,18 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1337,7 +1333,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1356,13 +1352,13 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1372,7 +1368,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1391,13 +1387,13 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1426,13 +1422,13 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1461,13 +1457,13 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1477,32 +1473,32 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n"/>
-      <c r="B30" s="2" t="n"/>
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -1512,32 +1508,28 @@
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -1561,14 +1553,18 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -1578,7 +1574,7 @@
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1597,18 +1593,18 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -1618,51 +1614,47 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n"/>
-      <c r="B34" s="2" t="n"/>
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
       <c r="C35" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1670,14 +1662,18 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -1687,7 +1683,7 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1706,13 +1702,13 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -1722,7 +1718,7 @@
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1741,13 +1737,13 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1776,13 +1772,13 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1811,13 +1807,13 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1827,7 +1823,7 @@
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1841,18 +1837,14 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -1876,19 +1868,19 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
@@ -1898,63 +1890,63 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity net gain</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Biodiversity gain condition applies</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity net gain</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
-        </is>
-      </c>
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition applies</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="inlineStr"/>
+          <t>Biodiversity gain condition exemption reason[]</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>Exemption type</t>
+        </is>
+      </c>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
+          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
@@ -1973,19 +1965,19 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>Exemption type</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
+          <t>The reason the exemption applies to this proposal</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
@@ -1999,24 +1991,24 @@
       <c r="B45" s="2" t="n"/>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition exemption reason[]</t>
+          <t>Biodiversity net gain details</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Pre development date</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>The reason the exemption applies to this proposal</t>
+          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
@@ -2035,19 +2027,19 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>Pre development date</t>
+          <t>Pre development biodiversity value</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
+          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
@@ -2066,24 +2058,24 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>Pre development biodiversity value</t>
+          <t>Earlier date reason</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
+          <t>Reason for using a pre-development date that is earlier than the application submission</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2097,19 +2089,19 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>Earlier date reason</t>
+          <t>Habitat loss after 2020</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Reason for using a pre-development date that is earlier than the application submission</t>
+          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
@@ -2128,24 +2120,28 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss after 2020</t>
-        </is>
-      </c>
-      <c r="E49" s="2" t="inlineStr"/>
+          <t>Habitat loss details</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>Loss date</t>
+        </is>
+      </c>
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
+          <t>Date the activity causing habitat loss or degradation occurred</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2164,18 +2160,18 @@
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Loss date</t>
+          <t>Pre loss biodiversity value</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Date the activity causing habitat loss or degradation occurred</t>
+          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
@@ -2199,23 +2195,23 @@
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Pre loss biodiversity value</t>
+          <t>Supporting evidence</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
+          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2229,28 +2225,24 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss details</t>
-        </is>
-      </c>
-      <c r="E52" s="2" t="inlineStr">
-        <is>
-          <t>Supporting evidence</t>
-        </is>
-      </c>
+          <t>Metric publication date</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
+          <t>Publication date of the biodiversity metric tool used for calculations</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2264,19 +2256,19 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>Metric publication date</t>
+          <t>Irreplaceable habitats</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Publication date of the biodiversity metric tool used for calculations</t>
+          <t>Indicates whether the site contains any irreplaceable habitats</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
@@ -2295,24 +2287,24 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats</t>
+          <t>Irreplaceable habitats details</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether the site contains any irreplaceable habitats</t>
+          <t>Description and references for any irreplaceable habitats identified on the site</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2326,14 +2318,18 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats details</t>
-        </is>
-      </c>
-      <c r="E55" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Description and references for any irreplaceable habitats identified on the site</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
@@ -2343,7 +2339,7 @@
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2362,13 +2358,13 @@
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -2383,27 +2379,27 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n"/>
-      <c r="B57" s="2" t="n"/>
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain details</t>
-        </is>
-      </c>
-      <c r="D57" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr"/>
+      <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
@@ -2420,17 +2416,17 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Community consultation</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>What community consultation activities have taken place as part of the application</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Have consulted</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr"/>
@@ -2438,12 +2434,12 @@
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Whether community consultation has been carried out</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
@@ -2453,19 +2449,11 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>Community consultation</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>What community consultation activities have taken place as part of the application</t>
-        </is>
-      </c>
+      <c r="A59" s="2" t="n"/>
+      <c r="B59" s="2" t="n"/>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Have consulted</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr"/>
@@ -2473,26 +2461,34 @@
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Whether community consultation has been carried out</t>
+          <t>Provide details of the community consultation</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n"/>
-      <c r="B60" s="2" t="n"/>
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+        </is>
+      </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr"/>
@@ -2500,34 +2496,26 @@
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Provide details of the community consultation</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
+      <c r="A61" s="2" t="n"/>
+      <c r="B61" s="2" t="n"/>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr"/>
@@ -2535,17 +2523,17 @@
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2542,7 @@
       <c r="B62" s="2" t="n"/>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr"/>
@@ -2562,7 +2550,7 @@
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -2577,11 +2565,19 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n"/>
-      <c r="B63" s="2" t="n"/>
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr"/>
@@ -2589,7 +2585,7 @@
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -2599,24 +2595,16 @@
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A64" s="2" t="n"/>
+      <c r="B64" s="2" t="n"/>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr"/>
@@ -2624,12 +2612,12 @@
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
@@ -2643,7 +2631,7 @@
       <c r="B65" s="2" t="n"/>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr"/>
@@ -2651,12 +2639,12 @@
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
@@ -2666,11 +2654,19 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n"/>
-      <c r="B66" s="2" t="n"/>
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Demolition reason</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>Why demolition is necessary at the development site</t>
+        </is>
+      </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr"/>
@@ -2678,7 +2674,7 @@
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Why is it necessary to demolish all or part of the building(s) and structure(s)?</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -2695,17 +2691,17 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>Demolition reason</t>
+          <t>Ownership certificates and agricultural land declaration</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>Why demolition is necessary at the development site</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Sole owner</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr"/>
@@ -2713,12 +2709,12 @@
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Why is it necessary to demolish all or part of the building(s) and structure(s)?</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
@@ -2728,19 +2724,11 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
+      <c r="A68" s="2" t="n"/>
+      <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr"/>
@@ -2748,7 +2736,7 @@
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -2767,25 +2755,33 @@
       <c r="B69" s="2" t="n"/>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="inlineStr"/>
-      <c r="E69" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2804,13 +2800,13 @@
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -2820,7 +2816,7 @@
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2839,13 +2835,13 @@
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
@@ -2874,13 +2870,13 @@
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
@@ -2909,13 +2905,13 @@
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
@@ -2925,7 +2921,7 @@
       </c>
       <c r="I73" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2939,23 +2935,19 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E74" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr"/>
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I74" s="2" t="inlineStr">
@@ -2969,24 +2961,20 @@
       <c r="B75" s="2" t="n"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="D75" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr"/>
       <c r="E75" s="2" t="inlineStr"/>
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I75" s="2" t="inlineStr">
@@ -3000,15 +2988,19 @@
       <c r="B76" s="2" t="n"/>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="D76" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="E76" s="2" t="inlineStr"/>
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
@@ -3018,7 +3010,7 @@
       </c>
       <c r="I76" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3032,19 +3024,19 @@
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr"/>
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I77" s="2" t="inlineStr">
@@ -3058,29 +3050,25 @@
       <c r="B78" s="2" t="n"/>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="D78" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr"/>
       <c r="E78" s="2" t="inlineStr"/>
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3089,7 +3077,7 @@
       <c r="B79" s="2" t="n"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr"/>
@@ -3097,12 +3085,12 @@
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
@@ -3116,7 +3104,7 @@
       <c r="B80" s="2" t="n"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr"/>
@@ -3124,7 +3112,7 @@
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
@@ -3143,7 +3131,7 @@
       <c r="B81" s="2" t="n"/>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr"/>
@@ -3151,12 +3139,12 @@
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
@@ -3166,11 +3154,19 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n"/>
-      <c r="B82" s="2" t="n"/>
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr"/>
@@ -3178,34 +3174,26 @@
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I82" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A83" s="2" t="n"/>
+      <c r="B83" s="2" t="n"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr"/>
@@ -3213,17 +3201,17 @@
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I83" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3232,7 +3220,7 @@
       <c r="B84" s="2" t="n"/>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr"/>
@@ -3240,7 +3228,7 @@
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
@@ -3259,7 +3247,7 @@
       <c r="B85" s="2" t="n"/>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr"/>
@@ -3267,7 +3255,7 @@
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
@@ -3286,7 +3274,7 @@
       <c r="B86" s="2" t="n"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr"/>
@@ -3294,7 +3282,7 @@
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -3309,11 +3297,19 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n"/>
-      <c r="B87" s="2" t="n"/>
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Proposal description</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr"/>
@@ -3321,7 +3317,7 @@
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -3331,24 +3327,16 @@
       </c>
       <c r="I87" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B88" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
+      <c r="A88" s="2" t="n"/>
+      <c r="B88" s="2" t="n"/>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr"/>
@@ -3356,12 +3344,12 @@
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
@@ -3375,7 +3363,7 @@
       <c r="B89" s="2" t="n"/>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr"/>
@@ -3383,17 +3371,17 @@
       <c r="F89" s="2" t="inlineStr"/>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3402,7 +3390,7 @@
       <c r="B90" s="2" t="n"/>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr"/>
@@ -3410,17 +3398,17 @@
       <c r="F90" s="2" t="inlineStr"/>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3417,7 @@
       <c r="B91" s="2" t="n"/>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr"/>
@@ -3437,26 +3425,34 @@
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n"/>
-      <c r="B92" s="2" t="n"/>
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Related applications</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>Details of any other development proposals made for the site</t>
+        </is>
+      </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>Has related applications</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr"/>
@@ -3464,47 +3460,43 @@
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Are there any related applications, previous proposals or demolitions for the site</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I92" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="inlineStr">
-        <is>
-          <t>Related applications</t>
-        </is>
-      </c>
-      <c r="B93" s="2" t="inlineStr">
-        <is>
-          <t>Details of any other development proposals made for the site</t>
-        </is>
-      </c>
+      <c r="A93" s="2" t="n"/>
+      <c r="B93" s="2" t="n"/>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Has related applications</t>
-        </is>
-      </c>
-      <c r="D93" s="2" t="inlineStr"/>
+          <t>Related applications[]</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E93" s="2" t="inlineStr"/>
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Are there any related applications, previous proposals or demolitions for the site</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I93" s="2" t="inlineStr">
@@ -3523,14 +3515,14 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr"/>
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application</t>
+          <t>A description of the related application</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
@@ -3554,14 +3546,14 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr"/>
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>A description of the related application</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -3571,33 +3563,41 @@
       </c>
       <c r="I95" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n"/>
-      <c r="B96" s="2" t="n"/>
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Related applications[]</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>Decision date</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr"/>
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I96" s="2" t="inlineStr">
@@ -3607,16 +3607,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B97" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A97" s="2" t="n"/>
+      <c r="B97" s="2" t="n"/>
       <c r="C97" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -3624,19 +3616,19 @@
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr"/>
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I97" s="2" t="inlineStr">
@@ -3655,14 +3647,14 @@
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr"/>
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
@@ -3686,19 +3678,19 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr"/>
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I99" s="2" t="inlineStr">
@@ -3717,14 +3709,14 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr"/>
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
@@ -3748,14 +3740,14 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr"/>
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
@@ -3779,14 +3771,14 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
@@ -3810,19 +3802,19 @@
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I103" s="2" t="inlineStr">
@@ -3841,14 +3833,14 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
@@ -3863,50 +3855,46 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n"/>
-      <c r="B105" s="2" t="n"/>
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D105" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr"/>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I105" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B106" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A106" s="2" t="n"/>
+      <c r="B106" s="2" t="n"/>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr"/>
@@ -3914,12 +3902,12 @@
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
@@ -3933,7 +3921,7 @@
       <c r="B107" s="2" t="n"/>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="D107" s="2" t="inlineStr"/>
@@ -3941,17 +3929,17 @@
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I107" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3960,15 +3948,19 @@
       <c r="B108" s="2" t="n"/>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="D108" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E108" s="2" t="inlineStr"/>
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
@@ -3978,7 +3970,7 @@
       </c>
       <c r="I108" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3992,14 +3984,14 @@
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
@@ -4023,14 +4015,14 @@
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
@@ -4039,37 +4031,6 @@
         </is>
       </c>
       <c r="I110" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n"/>
-      <c r="B111" s="2" t="n"/>
-      <c r="C111" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D111" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E111" s="2" t="inlineStr"/>
-      <c r="F111" s="2" t="inlineStr"/>
-      <c r="G111" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="H111" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I111" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -4077,40 +4038,40 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="B43:B57"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="A67"/>
-    <mergeCell ref="A58"/>
-    <mergeCell ref="B83:B87"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="A97:A105"/>
-    <mergeCell ref="B58"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="B68:B82"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B67"/>
-    <mergeCell ref="B97:B105"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="A106:A111"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A43:A57"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A68:A82"/>
-    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B42:B56"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="B67:B81"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B66"/>
+    <mergeCell ref="A96:A104"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="A66"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="B57"/>
+    <mergeCell ref="A67:A81"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B96:B104"/>
+    <mergeCell ref="A57"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="A58:A59"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area.xlsx
+++ b/generated/spreadsheet/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,17 +964,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -993,22 +993,18 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1018,7 +1014,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1037,13 +1033,13 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1072,48 +1068,48 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1123,32 +1119,28 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1172,14 +1164,18 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1189,7 +1185,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1208,18 +1204,18 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1229,51 +1225,47 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1281,14 +1273,18 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1298,7 +1294,7 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1317,13 +1313,13 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1333,7 +1329,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1352,13 +1348,13 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1387,13 +1383,13 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1422,13 +1418,13 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1438,32 +1434,32 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n"/>
-      <c r="B29" s="2" t="n"/>
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1473,32 +1469,28 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A30" s="2" t="n"/>
+      <c r="B30" s="2" t="n"/>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -1522,14 +1514,18 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -1539,7 +1535,7 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1558,18 +1554,18 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -1579,51 +1575,47 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n"/>
-      <c r="B33" s="2" t="n"/>
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A34" s="2" t="n"/>
+      <c r="B34" s="2" t="n"/>
       <c r="C34" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1631,14 +1623,18 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -1648,7 +1644,7 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1667,13 +1663,13 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -1683,7 +1679,7 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1702,13 +1698,13 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -1737,13 +1733,13 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1772,13 +1768,13 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1788,7 +1784,7 @@
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1802,18 +1798,14 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1837,19 +1829,19 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
@@ -1859,63 +1851,63 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n"/>
-      <c r="B41" s="2" t="n"/>
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity net gain</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+        </is>
+      </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Biodiversity gain condition applies</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity net gain</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
-        </is>
-      </c>
+      <c r="A42" s="2" t="n"/>
+      <c r="B42" s="2" t="n"/>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition applies</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr"/>
+          <t>Biodiversity gain condition exemption reason[]</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>Exemption type</t>
+        </is>
+      </c>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
+          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
@@ -1934,19 +1926,19 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>Exemption type</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
+          <t>The reason the exemption applies to this proposal</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
@@ -1960,24 +1952,24 @@
       <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition exemption reason[]</t>
+          <t>Biodiversity net gain details</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Pre development date</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>The reason the exemption applies to this proposal</t>
+          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
@@ -1996,19 +1988,19 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>Pre development date</t>
+          <t>Pre development biodiversity value</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
+          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
@@ -2027,24 +2019,24 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>Pre development biodiversity value</t>
+          <t>Earlier date reason</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
+          <t>Reason for using a pre-development date that is earlier than the application submission</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2058,19 +2050,19 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>Earlier date reason</t>
+          <t>Habitat loss after 2020</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Reason for using a pre-development date that is earlier than the application submission</t>
+          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -2089,24 +2081,28 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss after 2020</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="inlineStr"/>
+          <t>Habitat loss details</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>Loss date</t>
+        </is>
+      </c>
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
+          <t>Date the activity causing habitat loss or degradation occurred</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2125,18 +2121,18 @@
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Loss date</t>
+          <t>Pre loss biodiversity value</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Date the activity causing habitat loss or degradation occurred</t>
+          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
@@ -2160,23 +2156,23 @@
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Pre loss biodiversity value</t>
+          <t>Supporting evidence</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
+          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2190,28 +2186,24 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss details</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="inlineStr">
-        <is>
-          <t>Supporting evidence</t>
-        </is>
-      </c>
+          <t>Metric publication date</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
+          <t>Publication date of the biodiversity metric tool used for calculations</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2225,19 +2217,19 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>Metric publication date</t>
+          <t>Irreplaceable habitats</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Publication date of the biodiversity metric tool used for calculations</t>
+          <t>Indicates whether the site contains any irreplaceable habitats</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
@@ -2256,24 +2248,24 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats</t>
+          <t>Irreplaceable habitats details</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether the site contains any irreplaceable habitats</t>
+          <t>Description and references for any irreplaceable habitats identified on the site</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2287,14 +2279,18 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats details</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Description and references for any irreplaceable habitats identified on the site</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
@@ -2304,7 +2300,7 @@
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2323,13 +2319,13 @@
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
@@ -2344,27 +2340,27 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n"/>
-      <c r="B56" s="2" t="n"/>
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain details</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="E56" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr"/>
+      <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -2381,17 +2377,17 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Community consultation</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>What community consultation activities have taken place as part of the application</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Have consulted</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr"/>
@@ -2399,12 +2395,12 @@
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Whether community consultation has been carried out</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
@@ -2414,19 +2410,11 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>Community consultation</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>What community consultation activities have taken place as part of the application</t>
-        </is>
-      </c>
+      <c r="A58" s="2" t="n"/>
+      <c r="B58" s="2" t="n"/>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Have consulted</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr"/>
@@ -2434,26 +2422,34 @@
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Whether community consultation has been carried out</t>
+          <t>Provide details of the community consultation</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n"/>
-      <c r="B59" s="2" t="n"/>
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+        </is>
+      </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr"/>
@@ -2461,34 +2457,26 @@
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Provide details of the community consultation</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
+      <c r="A60" s="2" t="n"/>
+      <c r="B60" s="2" t="n"/>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr"/>
@@ -2496,17 +2484,17 @@
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2503,7 @@
       <c r="B61" s="2" t="n"/>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr"/>
@@ -2523,7 +2511,7 @@
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -2538,11 +2526,19 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n"/>
-      <c r="B62" s="2" t="n"/>
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr"/>
@@ -2550,7 +2546,7 @@
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -2560,24 +2556,16 @@
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A63" s="2" t="n"/>
+      <c r="B63" s="2" t="n"/>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr"/>
@@ -2585,12 +2573,12 @@
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
@@ -2604,7 +2592,7 @@
       <c r="B64" s="2" t="n"/>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr"/>
@@ -2612,12 +2600,12 @@
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
@@ -2627,11 +2615,19 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n"/>
-      <c r="B65" s="2" t="n"/>
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>Demolition reason</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>Why demolition is necessary at the development site</t>
+        </is>
+      </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr"/>
@@ -2639,7 +2635,7 @@
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Why is it necessary to demolish all or part of the building(s) and structure(s)?</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -2656,17 +2652,17 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>Demolition reason</t>
+          <t>Ownership certificates and agricultural land declaration</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>Why demolition is necessary at the development site</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Sole owner</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr"/>
@@ -2674,12 +2670,12 @@
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Why is it necessary to demolish all or part of the building(s) and structure(s)?</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
@@ -2689,19 +2685,11 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
+      <c r="A67" s="2" t="n"/>
+      <c r="B67" s="2" t="n"/>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr"/>
@@ -2709,7 +2697,7 @@
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -2728,25 +2716,33 @@
       <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="D68" s="2" t="inlineStr"/>
-      <c r="E68" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2765,13 +2761,13 @@
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -2781,7 +2777,7 @@
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2800,13 +2796,13 @@
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -2835,13 +2831,13 @@
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
@@ -2870,13 +2866,13 @@
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
@@ -2886,7 +2882,7 @@
       </c>
       <c r="I72" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2900,23 +2896,19 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E73" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr"/>
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
@@ -2930,24 +2922,20 @@
       <c r="B74" s="2" t="n"/>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr"/>
       <c r="E74" s="2" t="inlineStr"/>
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I74" s="2" t="inlineStr">
@@ -2961,15 +2949,19 @@
       <c r="B75" s="2" t="n"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="D75" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="E75" s="2" t="inlineStr"/>
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
@@ -2979,7 +2971,7 @@
       </c>
       <c r="I75" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2993,19 +2985,19 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr"/>
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I76" s="2" t="inlineStr">
@@ -3019,29 +3011,25 @@
       <c r="B77" s="2" t="n"/>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="D77" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr"/>
       <c r="E77" s="2" t="inlineStr"/>
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I77" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3050,7 +3038,7 @@
       <c r="B78" s="2" t="n"/>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr"/>
@@ -3058,12 +3046,12 @@
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
@@ -3077,7 +3065,7 @@
       <c r="B79" s="2" t="n"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr"/>
@@ -3085,7 +3073,7 @@
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
@@ -3104,7 +3092,7 @@
       <c r="B80" s="2" t="n"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr"/>
@@ -3112,12 +3100,12 @@
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I80" s="2" t="inlineStr">
@@ -3127,11 +3115,19 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n"/>
-      <c r="B81" s="2" t="n"/>
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr"/>
@@ -3139,34 +3135,26 @@
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A82" s="2" t="n"/>
+      <c r="B82" s="2" t="n"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr"/>
@@ -3174,17 +3162,17 @@
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I82" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3193,7 +3181,7 @@
       <c r="B83" s="2" t="n"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr"/>
@@ -3201,7 +3189,7 @@
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
@@ -3220,7 +3208,7 @@
       <c r="B84" s="2" t="n"/>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr"/>
@@ -3228,7 +3216,7 @@
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
@@ -3247,7 +3235,7 @@
       <c r="B85" s="2" t="n"/>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr"/>
@@ -3255,7 +3243,7 @@
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
@@ -3270,11 +3258,19 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n"/>
-      <c r="B86" s="2" t="n"/>
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Proposal description</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr"/>
@@ -3282,7 +3278,7 @@
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -3292,24 +3288,16 @@
       </c>
       <c r="I86" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B87" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
+      <c r="A87" s="2" t="n"/>
+      <c r="B87" s="2" t="n"/>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr"/>
@@ -3317,12 +3305,12 @@
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I87" s="2" t="inlineStr">
@@ -3336,7 +3324,7 @@
       <c r="B88" s="2" t="n"/>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr"/>
@@ -3344,17 +3332,17 @@
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3363,7 +3351,7 @@
       <c r="B89" s="2" t="n"/>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr"/>
@@ -3371,17 +3359,17 @@
       <c r="F89" s="2" t="inlineStr"/>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3390,7 +3378,7 @@
       <c r="B90" s="2" t="n"/>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr"/>
@@ -3398,26 +3386,34 @@
       <c r="F90" s="2" t="inlineStr"/>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n"/>
-      <c r="B91" s="2" t="n"/>
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>Related applications</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>Details of any other development proposals made for the site</t>
+        </is>
+      </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>Has related applications</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr"/>
@@ -3425,47 +3421,43 @@
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Are there any related applications, previous proposals or demolitions for the site</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="inlineStr">
-        <is>
-          <t>Related applications</t>
-        </is>
-      </c>
-      <c r="B92" s="2" t="inlineStr">
-        <is>
-          <t>Details of any other development proposals made for the site</t>
-        </is>
-      </c>
+      <c r="A92" s="2" t="n"/>
+      <c r="B92" s="2" t="n"/>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Has related applications</t>
-        </is>
-      </c>
-      <c r="D92" s="2" t="inlineStr"/>
+          <t>Related applications[]</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E92" s="2" t="inlineStr"/>
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Are there any related applications, previous proposals or demolitions for the site</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I92" s="2" t="inlineStr">
@@ -3484,14 +3476,14 @@
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr"/>
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application</t>
+          <t>A description of the related application</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -3515,14 +3507,14 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr"/>
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>A description of the related application</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
@@ -3532,33 +3524,41 @@
       </c>
       <c r="I94" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n"/>
-      <c r="B95" s="2" t="n"/>
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Related applications[]</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>Decision date</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr"/>
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I95" s="2" t="inlineStr">
@@ -3568,16 +3568,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B96" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A96" s="2" t="n"/>
+      <c r="B96" s="2" t="n"/>
       <c r="C96" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -3585,19 +3577,19 @@
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr"/>
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I96" s="2" t="inlineStr">
@@ -3616,14 +3608,14 @@
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr"/>
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
@@ -3647,19 +3639,19 @@
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr"/>
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I98" s="2" t="inlineStr">
@@ -3678,14 +3670,14 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr"/>
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
@@ -3709,14 +3701,14 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr"/>
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
@@ -3740,14 +3732,14 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr"/>
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
@@ -3771,19 +3763,19 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I102" s="2" t="inlineStr">
@@ -3802,14 +3794,14 @@
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
@@ -3824,50 +3816,46 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n"/>
-      <c r="B104" s="2" t="n"/>
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D104" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr"/>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I104" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B105" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A105" s="2" t="n"/>
+      <c r="B105" s="2" t="n"/>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr"/>
@@ -3875,12 +3863,12 @@
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I105" s="2" t="inlineStr">
@@ -3894,7 +3882,7 @@
       <c r="B106" s="2" t="n"/>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr"/>
@@ -3902,17 +3890,17 @@
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3921,15 +3909,19 @@
       <c r="B107" s="2" t="n"/>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="D107" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E107" s="2" t="inlineStr"/>
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
@@ -3939,7 +3931,7 @@
       </c>
       <c r="I107" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3953,14 +3945,14 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr"/>
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
@@ -3984,14 +3976,14 @@
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
@@ -4000,37 +3992,6 @@
         </is>
       </c>
       <c r="I109" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n"/>
-      <c r="B110" s="2" t="n"/>
-      <c r="C110" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D110" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E110" s="2" t="inlineStr"/>
-      <c r="F110" s="2" t="inlineStr"/>
-      <c r="G110" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="H110" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I110" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -4038,40 +3999,40 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B42:B56"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="B67:B81"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B66"/>
-    <mergeCell ref="A96:A104"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="A66"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="B57"/>
-    <mergeCell ref="A67:A81"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B96:B104"/>
-    <mergeCell ref="A57"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B65"/>
+    <mergeCell ref="A95:A103"/>
+    <mergeCell ref="A41:A55"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A66:A80"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B95:B103"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B56"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A65"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A56"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B66:B80"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="B104:B109"/>
+    <mergeCell ref="B41:B55"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area.xlsx
+++ b/generated/spreadsheet/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area.xlsx
@@ -842,27 +842,23 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -886,12 +882,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -901,7 +897,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -925,12 +921,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -940,7 +936,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -964,17 +960,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -993,18 +989,22 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1033,13 +1033,13 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1068,48 +1068,48 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1119,28 +1119,32 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1164,18 +1168,14 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1204,18 +1204,18 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1225,47 +1225,51 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1273,18 +1277,14 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1313,13 +1313,13 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1348,13 +1348,13 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1383,13 +1383,13 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1418,13 +1418,13 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1434,32 +1434,32 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="2" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr"/>
-      <c r="E29" s="2" t="inlineStr"/>
+          <t>Applicants[]</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1469,28 +1469,32 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n"/>
-      <c r="B30" s="2" t="n"/>
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -1514,18 +1518,14 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1554,18 +1554,18 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -1575,47 +1575,51 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n"/>
-      <c r="B34" s="2" t="n"/>
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1623,18 +1627,14 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1663,13 +1663,13 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1698,13 +1698,13 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -1733,13 +1733,13 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1768,13 +1768,13 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1798,14 +1798,18 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1829,19 +1833,19 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>User role</t>
+          <t>Company</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
@@ -1851,63 +1855,63 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity net gain</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition applies</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr"/>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>User role</t>
+        </is>
+      </c>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity net gain</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition exemption reason[]</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t>Exemption type</t>
-        </is>
-      </c>
+          <t>Biodiversity gain condition applies</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
+          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
@@ -1926,19 +1930,19 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Exemption type</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>The reason the exemption applies to this proposal</t>
+          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
@@ -1952,24 +1956,24 @@
       <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain details</t>
+          <t>Biodiversity gain condition exemption reason[]</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>Pre development date</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
+          <t>The reason the exemption applies to this proposal</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
@@ -1988,19 +1992,19 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>Pre development biodiversity value</t>
+          <t>Pre development date</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
+          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
@@ -2019,24 +2023,24 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>Earlier date reason</t>
+          <t>Pre development biodiversity value</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Reason for using a pre-development date that is earlier than the application submission</t>
+          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2050,19 +2054,19 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss after 2020</t>
+          <t>Earlier date reason</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
+          <t>Reason for using a pre-development date that is earlier than the application submission</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -2081,28 +2085,24 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss details</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>Loss date</t>
-        </is>
-      </c>
+          <t>Habitat loss after 2020</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Date the activity causing habitat loss or degradation occurred</t>
+          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2121,18 +2121,18 @@
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Pre loss biodiversity value</t>
+          <t>Loss date</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
+          <t>Date the activity causing habitat loss or degradation occurred</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
@@ -2156,23 +2156,23 @@
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Supporting evidence</t>
+          <t>Pre loss biodiversity value</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
+          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2186,24 +2186,28 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>Metric publication date</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="inlineStr"/>
+          <t>Habitat loss details</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>Supporting evidence</t>
+        </is>
+      </c>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Publication date of the biodiversity metric tool used for calculations</t>
+          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2217,19 +2221,19 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats</t>
+          <t>Metric publication date</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether the site contains any irreplaceable habitats</t>
+          <t>Publication date of the biodiversity metric tool used for calculations</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
@@ -2248,24 +2252,24 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats details</t>
+          <t>Irreplaceable habitats</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Description and references for any irreplaceable habitats identified on the site</t>
+          <t>Indicates whether the site contains any irreplaceable habitats</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2279,18 +2283,14 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Irreplaceable habitats details</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Description and references for any irreplaceable habitats identified on the site</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2319,13 +2319,13 @@
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
@@ -4000,18 +4000,18 @@
   </sheetData>
   <mergeCells count="34">
     <mergeCell ref="B65"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A42:A55"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A30:A33"/>
     <mergeCell ref="A95:A103"/>
-    <mergeCell ref="A41:A55"/>
     <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B2:B18"/>
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="A66:A80"/>
     <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B19:B22"/>
     <mergeCell ref="B95:B103"/>
-    <mergeCell ref="B23:B28"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B62:B64"/>
     <mergeCell ref="A57:A58"/>
@@ -4019,20 +4019,20 @@
     <mergeCell ref="A91:A94"/>
     <mergeCell ref="A65"/>
     <mergeCell ref="B81:B85"/>
-    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B24:B29"/>
     <mergeCell ref="A56"/>
     <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B42:B55"/>
     <mergeCell ref="B66:B80"/>
-    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="B2:B19"/>
     <mergeCell ref="B91:B94"/>
     <mergeCell ref="A86:A90"/>
     <mergeCell ref="B104:B109"/>
-    <mergeCell ref="B41:B55"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area.xlsx
+++ b/generated/spreadsheet/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area.xlsx
@@ -708,7 +708,7 @@
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">

--- a/generated/spreadsheet/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area.xlsx
+++ b/generated/spreadsheet/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I76" s="2" t="inlineStr">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I80" s="2" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">

--- a/generated/spreadsheet/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area.xlsx
+++ b/generated/spreadsheet/planning-permission-for-relevant-demolition-in-a-conservation-area-demolition-con-area.xlsx
@@ -3092,7 +3092,7 @@
       <c r="B80" s="2" t="n"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr"/>
@@ -3100,12 +3100,12 @@
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I80" s="2" t="inlineStr">
